--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-observation-socialhistory-code-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-observation-socialhistory-code-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T09:08:26+00:00</t>
+    <t>2022-08-17T12:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-observation-socialhistory-code-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-observation-socialhistory-code-cs.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Concepts" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -41,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Observation SocialHistory Code</t>
+    <t>JP Core Observation SocialHistory Code CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -56,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T12:11:07+00:00</t>
+    <t>2022-08-29T14:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -80,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Observation（生活背景）で使用する項目コード</t>
+    <t>Observation（生活背景）で使用する項目コード、電子保存された診療録情報の交換のためのデータ項目セット([https://www2.medis.or.jp/master/jmix/file/tab1.pdf](https://www2.medis.or.jp/master/jmix/file/tab1.pdf))にて定義される</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -120,6 +121,243 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MD0012770</t>
+  </si>
+  <si>
+    <t>出生地</t>
+  </si>
+  <si>
+    <t>出生地（都道府県、市町村名など）</t>
+  </si>
+  <si>
+    <t>MD0012780</t>
+  </si>
+  <si>
+    <t>主な居住地歴</t>
+  </si>
+  <si>
+    <t>居住地（都道府県、市町村名など）のリスト</t>
+  </si>
+  <si>
+    <t>MD0012790</t>
+  </si>
+  <si>
+    <t>家庭環境</t>
+  </si>
+  <si>
+    <t>家庭環境の記述</t>
+  </si>
+  <si>
+    <t>MD0012800</t>
+  </si>
+  <si>
+    <t>学業歴</t>
+  </si>
+  <si>
+    <t>最終学歴を表す文字列</t>
+  </si>
+  <si>
+    <t>MD0012810</t>
+  </si>
+  <si>
+    <t>職業歴</t>
+  </si>
+  <si>
+    <t>主な職業のリスト</t>
+  </si>
+  <si>
+    <t>MD0012820</t>
+  </si>
+  <si>
+    <t>化学物質.取り扱い歴</t>
+  </si>
+  <si>
+    <t>なし、または主たる取り扱い物質のリスト</t>
+  </si>
+  <si>
+    <t>MD0012830</t>
+  </si>
+  <si>
+    <t>放射線物質.取り扱い歴</t>
+  </si>
+  <si>
+    <t>MD0012840</t>
+  </si>
+  <si>
+    <t>騒音環境</t>
+  </si>
+  <si>
+    <t>MD0012850</t>
+  </si>
+  <si>
+    <t>海外渡航歴</t>
+  </si>
+  <si>
+    <t>主な医学衛生学上特記すべき渡航地域のリスト</t>
+  </si>
+  <si>
+    <t>MD0012860</t>
+  </si>
+  <si>
+    <t>常用薬剤歴</t>
+  </si>
+  <si>
+    <t>主な常用薬剤名のリスト</t>
+  </si>
+  <si>
+    <t>MD0012870</t>
+  </si>
+  <si>
+    <t>喫煙歴.有無</t>
+  </si>
+  <si>
+    <t>過去の喫煙習慣の有無</t>
+  </si>
+  <si>
+    <t>MD0012880</t>
+  </si>
+  <si>
+    <t>現在の喫煙.有無</t>
+  </si>
+  <si>
+    <t>現在の喫煙習慣の有無</t>
+  </si>
+  <si>
+    <t>MD0012890</t>
+  </si>
+  <si>
+    <t>喫煙種類区分</t>
+  </si>
+  <si>
+    <t>主要な喫煙の種類</t>
+  </si>
+  <si>
+    <t>MD0012900</t>
+  </si>
+  <si>
+    <t>１日の喫煙本数</t>
+  </si>
+  <si>
+    <t>1日の喫煙本数（喫煙の種類についての）</t>
+  </si>
+  <si>
+    <t>MD0012910</t>
+  </si>
+  <si>
+    <t>通算喫煙年数</t>
+  </si>
+  <si>
+    <t>通算の喫煙年数</t>
+  </si>
+  <si>
+    <t>MD0012920</t>
+  </si>
+  <si>
+    <t>喫煙指数</t>
+  </si>
+  <si>
+    <t>BrickmanIndex</t>
+  </si>
+  <si>
+    <t>MD0012930</t>
+  </si>
+  <si>
+    <t>飲酒歴.有無</t>
+  </si>
+  <si>
+    <t>過去の飲酒習慣の有無</t>
+  </si>
+  <si>
+    <t>MD0012940</t>
+  </si>
+  <si>
+    <t>現在の飲酒.有無</t>
+  </si>
+  <si>
+    <t>現在の飲酒習慣の有無</t>
+  </si>
+  <si>
+    <t>MD0012950</t>
+  </si>
+  <si>
+    <t>飲酒の種類区分</t>
+  </si>
+  <si>
+    <t>主な飲酒の種類</t>
+  </si>
+  <si>
+    <t>MD0012960</t>
+  </si>
+  <si>
+    <t>１日の飲酒量</t>
+  </si>
+  <si>
+    <t>1日のアルコール換算摂取量（ｍｌ）</t>
+  </si>
+  <si>
+    <t>MD0012970</t>
+  </si>
+  <si>
+    <t>通算飲酒年数</t>
+  </si>
+  <si>
+    <t>おおよその通算飲酒年数</t>
+  </si>
+  <si>
+    <t>MD0012980</t>
+  </si>
+  <si>
+    <t>嗜好品</t>
+  </si>
+  <si>
+    <t>嗜好品のリスト</t>
+  </si>
+  <si>
+    <t>MD0012990</t>
+  </si>
+  <si>
+    <t>生活習慣</t>
+  </si>
+  <si>
+    <t>特記すべき生活習慣のリスト</t>
+  </si>
+  <si>
+    <t>MD0013000</t>
+  </si>
+  <si>
+    <t>性格</t>
+  </si>
+  <si>
+    <t>特記すべき性格のリスト</t>
+  </si>
+  <si>
+    <t>MD0013020</t>
+  </si>
+  <si>
+    <t>趣味</t>
+  </si>
+  <si>
+    <t>特記すべき趣味のリスト</t>
   </si>
 </sst>
 </file>
@@ -423,7 +661,386 @@
       <c r="A22" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-observation-socialhistory-code-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-observation-socialhistory-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-observation-socialhistory-code-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-observation-socialhistory-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-observation-socialhistory-code-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-observation-socialhistory-code-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-observation-socialhistory-code-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-observation-socialhistory-code-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="116">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ObservationSocialHistoryCode_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_ObservationSocialHistoryCode_CS</t>
   </si>
   <si>
     <t>Version</t>
@@ -48,16 +48,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -99,7 +102,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationSocialHistoryCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationSocialHistoryCode_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -553,116 +556,118 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -680,366 +685,366 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
